--- a/classes/DS/DS_10T1.xlsx
+++ b/classes/DS/DS_10T1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenquochung/Downloads/CODE/ESP32/project_backup/Server/classes/DS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBDF959-3C64-A347-BCB3-9EF3C90D9789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD3DA61-ABFF-A446-A325-50F30B556268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
